--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R08181a0a90a84a71"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5023b7aaf6a24646"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R85b2b1649bef43df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R2c260fc1edc0402c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R254d90013dd04534"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R01b4c9a02d634fb2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R2c260fc1edc0402c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R254d90013dd04534"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R01b4c9a02d634fb2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rffac33c142bc4a0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R2defb0d30cad4bc5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R349cdba61b074aad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rffac33c142bc4a0f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R2defb0d30cad4bc5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R349cdba61b074aad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R2f0175dc46ad4e8b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R36ed2e8ff8b64cdb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R4224f13a0e0d4515"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R2f0175dc46ad4e8b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R36ed2e8ff8b64cdb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R4224f13a0e0d4515"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R217854c113724604"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rb8f23e85b99648d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3d2a2aef4f23442e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R217854c113724604"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rb8f23e85b99648d7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3d2a2aef4f23442e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R813689c18a8c419f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R1fd085084c7148e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R9331ffd29bcd4c0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R813689c18a8c419f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R1fd085084c7148e6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R9331ffd29bcd4c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0855172e858f4e24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9709adf68b3645f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rcf1a6907559b43b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0855172e858f4e24"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9709adf68b3645f1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rcf1a6907559b43b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R3eac2f8b083f43b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R49baeccfd59d4af0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R00dc2dc9c0c348ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R3eac2f8b083f43b0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R49baeccfd59d4af0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R00dc2dc9c0c348ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd33cf482e2fd49af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9cdb92306b514839"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rbfb552bfcd6b406b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd33cf482e2fd49af"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9cdb92306b514839"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rbfb552bfcd6b406b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R4cb4f3b0fb9a44de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Ra79bbe41c758435f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3197c9053030499f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R4cb4f3b0fb9a44de"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Ra79bbe41c758435f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3197c9053030499f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R111eeb9a75e94730"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R88a0105a160b4e57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R47e68a96049e4890"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R111eeb9a75e94730"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R88a0105a160b4e57"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R47e68a96049e4890"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R685f43182f394f9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc31691f688064d76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R97046924be5e4fcb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R685f43182f394f9d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc31691f688064d76"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R97046924be5e4fcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0eac7c6d15f6416d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Re3df549b9f7c44bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R8300e43c3db14f80"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0eac7c6d15f6416d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Re3df549b9f7c44bc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R8300e43c3db14f80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rb94c0bbdb201467e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rb5aedc6454d049c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rf0987cd685c244ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rb94c0bbdb201467e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rb5aedc6454d049c5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rf0987cd685c244ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R7bcc1e2634e64d5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R1d839479672f4ffe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rdb7ecb03d0f44244"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R7bcc1e2634e64d5c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R1d839479672f4ffe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rdb7ecb03d0f44244"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R49d47136b9ed4677"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9f8b2f7d7ec147e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R684802a2efb34ec6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R49d47136b9ed4677"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9f8b2f7d7ec147e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R684802a2efb34ec6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R59620801b35c4586"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R15f993cba2ff4f94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R010311351443455d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R59620801b35c4586"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R15f993cba2ff4f94"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R010311351443455d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rfd84ad4feb434d26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rcb35137c58844c95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R159fd61b702940c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rfd84ad4feb434d26"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rcb35137c58844c95"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R159fd61b702940c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R09a652603b2c4bcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R57bc7930820b4a07"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rb5af87fff8404530"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R09a652603b2c4bcb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R57bc7930820b4a07"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rb5af87fff8404530"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R831fc9a299e841ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R997ded6656904024"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc2319b7eebbb49d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R831fc9a299e841ba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R997ded6656904024"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc2319b7eebbb49d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R9d434f4d087d47ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R621bba45d9754622"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R7d3912e78db04c64"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R9d434f4d087d47ba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R621bba45d9754622"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R7d3912e78db04c64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd046ff8848f647f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Racbe1b696e2e46c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3805c1f8e52441b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd046ff8848f647f7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Racbe1b696e2e46c1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R3805c1f8e52441b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R45d4ab1326cf4b45"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc9f1177d18fb4283"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra4f3f4a2cb354ef3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R45d4ab1326cf4b45"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc9f1177d18fb4283"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra4f3f4a2cb354ef3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R218bef9f0c584cbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5f865efb5dc340ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R49a21cd9b9904bb0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R218bef9f0c584cbb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5f865efb5dc340ec"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R49a21cd9b9904bb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rdc3c7e4102134447"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R747ff70af7e949d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rd860dabf24de4aeb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rdc3c7e4102134447"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R747ff70af7e949d8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rd860dabf24de4aeb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Ra3492aa9531a4561"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rf39f724b55774784"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R4ed2d0ef65aa4a7f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Ra3492aa9531a4561"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rf39f724b55774784"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R4ed2d0ef65aa4a7f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Reaa43da9b6b9415d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5d6d2f30819148bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R2ddb9b80906a4657"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/48_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Reaa43da9b6b9415d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5d6d2f30819148bf"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R2ddb9b80906a4657"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Re063cc3c42e04eab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R39bdeb5d19e14668"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R661cfb431ebb478e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
